--- a/Swapnotory/DataBase And Application/bl_user_role_dtl.xlsx
+++ b/Swapnotory/DataBase And Application/bl_user_role_dtl.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -38,7 +38,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>ERFAN.AHMED.ENG@GMAIL.COM</t>
+    <t>SWAPNOTORY49@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>02030</t>
   </si>
 </sst>
 </file>
@@ -138,8 +141,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" displayName="sheet1" ref="A1:H24" totalsRowShown="0" headerRowCount="1">
-  <autoFilter ref="A1:H24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" displayName="sheet1" ref="A1:H27" totalsRowShown="0" headerRowCount="1">
+  <autoFilter ref="A1:H27"/>
   <tableColumns count="8">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="ROLE_ID"/>
@@ -167,7 +170,7 @@
     <col min="2" max="2" width="13.64" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.64" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.91" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.36" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60.91" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.18" bestFit="1" customWidth="1"/>
@@ -216,7 +219,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
@@ -238,7 +241,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
@@ -260,7 +263,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
@@ -282,7 +285,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
@@ -304,7 +307,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
@@ -326,7 +329,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
@@ -348,7 +351,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
@@ -370,7 +373,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
@@ -392,7 +395,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
@@ -414,7 +417,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
@@ -436,7 +439,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
@@ -458,7 +461,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -480,7 +483,7 @@
         <v>9</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
@@ -502,7 +505,7 @@
         <v>9</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
@@ -524,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
@@ -546,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
@@ -568,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
@@ -590,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="7"/>
@@ -612,7 +615,7 @@
         <v>9</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="7"/>
@@ -634,7 +637,7 @@
         <v>9</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
@@ -656,7 +659,7 @@
         <v>9</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
@@ -678,7 +681,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="7"/>
@@ -700,10 +703,76 @@
         <v>9</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>45257.1358796296</v>
+        <v>45312.7389699074</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="7"/>
+    </row>
+    <row r="25" customHeight="1" ht="20">
+      <c r="A25" s="5" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>45319.1407986111</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" customHeight="1" ht="20">
+      <c r="A26" s="5" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>45319.2229398148</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" customHeight="1" ht="20">
+      <c r="A27" s="5" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>45326.4506597222</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
     </row>
   </sheetData>
   <tableParts count="1">
